--- a/po_analysis_by_asin/B083RW9TJF_po_data.xlsx
+++ b/po_analysis_by_asin/B083RW9TJF_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,217 +452,281 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>132</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>348</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45418</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>48</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45425</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45432</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45439</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>96</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45446</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>252</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45453</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>228</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45460</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>120</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45474</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>24</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45481</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>840</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45495</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45523</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45530</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45544</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45551</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>12</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45565</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45628</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B28" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B36" t="n">
         <v>36</v>
       </c>
     </row>
@@ -677,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,89 +763,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>54</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>216</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>540</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>336</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>912</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45627</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>36</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B083RW9TJF_po_data.xlsx
+++ b/po_analysis_by_asin/B083RW9TJF_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -757,7 +758,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -863,6 +864,649 @@
       </c>
       <c r="B14" t="n">
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-69.55703518226538</v>
+      </c>
+      <c r="D2" t="n">
+        <v>306.4058641225797</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>116</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-73.80345687142938</v>
+      </c>
+      <c r="D3" t="n">
+        <v>307.9384011612991</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>116</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-66.9073018600035</v>
+      </c>
+      <c r="D4" t="n">
+        <v>313.2411286945088</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>115</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-72.64127798695765</v>
+      </c>
+      <c r="D5" t="n">
+        <v>300.499974978896</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>115</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-80.23436777929643</v>
+      </c>
+      <c r="D6" t="n">
+        <v>304.0873095080783</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>115</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-74.99554244883802</v>
+      </c>
+      <c r="D7" t="n">
+        <v>291.4892983420579</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>115</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-69.50092714481045</v>
+      </c>
+      <c r="D8" t="n">
+        <v>297.2794326597208</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>115</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-75.7297635477822</v>
+      </c>
+      <c r="D9" t="n">
+        <v>304.5422645775899</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>115</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-70.0605267014581</v>
+      </c>
+      <c r="D10" t="n">
+        <v>320.6222266047191</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>115</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-84.78888788070594</v>
+      </c>
+      <c r="D11" t="n">
+        <v>298.6454642988592</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>115</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-68.41849088689368</v>
+      </c>
+      <c r="D12" t="n">
+        <v>303.0990505514989</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>115</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-83.45929302474377</v>
+      </c>
+      <c r="D13" t="n">
+        <v>298.6966281807966</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>115</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-81.55673095482375</v>
+      </c>
+      <c r="D14" t="n">
+        <v>306.5431865894091</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>115</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-79.21686808925536</v>
+      </c>
+      <c r="D15" t="n">
+        <v>311.1666166560167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>115</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-68.19878247734879</v>
+      </c>
+      <c r="D16" t="n">
+        <v>291.2160686242877</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>115</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-65.5246360274392</v>
+      </c>
+      <c r="D17" t="n">
+        <v>299.6131723095555</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>115</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-75.43308576145121</v>
+      </c>
+      <c r="D18" t="n">
+        <v>301.1376967272943</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>115</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-83.21336732915037</v>
+      </c>
+      <c r="D19" t="n">
+        <v>307.6670314319189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>115</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-81.00940802459674</v>
+      </c>
+      <c r="D20" t="n">
+        <v>300.0631945832149</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>115</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-80.61650331943859</v>
+      </c>
+      <c r="D21" t="n">
+        <v>305.5700608050794</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>115</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-81.19100760485111</v>
+      </c>
+      <c r="D22" t="n">
+        <v>298.2585154090377</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>115</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-83.25391638969889</v>
+      </c>
+      <c r="D23" t="n">
+        <v>303.933106768955</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>115</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-73.77337692047493</v>
+      </c>
+      <c r="D24" t="n">
+        <v>311.334273384322</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>115</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-75.81867133760379</v>
+      </c>
+      <c r="D25" t="n">
+        <v>293.2183132119405</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>115</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-72.08598405832669</v>
+      </c>
+      <c r="D26" t="n">
+        <v>313.058113119758</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>114</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-70.84714148747751</v>
+      </c>
+      <c r="D27" t="n">
+        <v>307.5820849476381</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>114</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-79.30419457646708</v>
+      </c>
+      <c r="D28" t="n">
+        <v>307.8862942567603</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>114</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-84.78517314654721</v>
+      </c>
+      <c r="D29" t="n">
+        <v>286.3550354380097</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>114</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-66.775270581092</v>
+      </c>
+      <c r="D30" t="n">
+        <v>297.9178315205265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>114</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-84.04333631330135</v>
+      </c>
+      <c r="D31" t="n">
+        <v>310.4636201903839</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>114</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-72.24668520334188</v>
+      </c>
+      <c r="D32" t="n">
+        <v>305.2640425037719</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>114</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-69.56962537686417</v>
+      </c>
+      <c r="D33" t="n">
+        <v>312.236605916861</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>114</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-72.96009327789751</v>
+      </c>
+      <c r="D34" t="n">
+        <v>295.793578031733</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>114</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-73.99891172707852</v>
+      </c>
+      <c r="D35" t="n">
+        <v>302.3334486171569</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>114</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-80.59871732591265</v>
+      </c>
+      <c r="D36" t="n">
+        <v>293.166393057529</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>114</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-85.53690979605777</v>
+      </c>
+      <c r="D37" t="n">
+        <v>296.9826938476161</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>114</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-70.25927156724522</v>
+      </c>
+      <c r="D38" t="n">
+        <v>322.2142017939813</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>114</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-79.75154642207076</v>
+      </c>
+      <c r="D39" t="n">
+        <v>295.0909297793536</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>114</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-88.66782270039646</v>
+      </c>
+      <c r="D40" t="n">
+        <v>293.7036122723248</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>114</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-74.90419037072003</v>
+      </c>
+      <c r="D41" t="n">
+        <v>294.4539642327704</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>114</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-65.97602952176973</v>
+      </c>
+      <c r="D42" t="n">
+        <v>300.4939584472251</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>114</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-78.70686869493315</v>
+      </c>
+      <c r="D43" t="n">
+        <v>286.0112812933309</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>114</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-87.42146933775921</v>
+      </c>
+      <c r="D44" t="n">
+        <v>313.8301429405902</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083RW9TJF_po_data.xlsx
+++ b/po_analysis_by_asin/B083RW9TJF_po_data.xlsx
@@ -877,7 +877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -896,16 +896,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -914,12 +904,6 @@
       <c r="B2" t="n">
         <v>116</v>
       </c>
-      <c r="C2" t="n">
-        <v>-69.55703518226538</v>
-      </c>
-      <c r="D2" t="n">
-        <v>306.4058641225797</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -928,12 +912,6 @@
       <c r="B3" t="n">
         <v>116</v>
       </c>
-      <c r="C3" t="n">
-        <v>-73.80345687142938</v>
-      </c>
-      <c r="D3" t="n">
-        <v>307.9384011612991</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -942,12 +920,6 @@
       <c r="B4" t="n">
         <v>116</v>
       </c>
-      <c r="C4" t="n">
-        <v>-66.9073018600035</v>
-      </c>
-      <c r="D4" t="n">
-        <v>313.2411286945088</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -956,12 +928,6 @@
       <c r="B5" t="n">
         <v>115</v>
       </c>
-      <c r="C5" t="n">
-        <v>-72.64127798695765</v>
-      </c>
-      <c r="D5" t="n">
-        <v>300.499974978896</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -970,12 +936,6 @@
       <c r="B6" t="n">
         <v>115</v>
       </c>
-      <c r="C6" t="n">
-        <v>-80.23436777929643</v>
-      </c>
-      <c r="D6" t="n">
-        <v>304.0873095080783</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -984,12 +944,6 @@
       <c r="B7" t="n">
         <v>115</v>
       </c>
-      <c r="C7" t="n">
-        <v>-74.99554244883802</v>
-      </c>
-      <c r="D7" t="n">
-        <v>291.4892983420579</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -998,12 +952,6 @@
       <c r="B8" t="n">
         <v>115</v>
       </c>
-      <c r="C8" t="n">
-        <v>-69.50092714481045</v>
-      </c>
-      <c r="D8" t="n">
-        <v>297.2794326597208</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1012,12 +960,6 @@
       <c r="B9" t="n">
         <v>115</v>
       </c>
-      <c r="C9" t="n">
-        <v>-75.7297635477822</v>
-      </c>
-      <c r="D9" t="n">
-        <v>304.5422645775899</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1026,12 +968,6 @@
       <c r="B10" t="n">
         <v>115</v>
       </c>
-      <c r="C10" t="n">
-        <v>-70.0605267014581</v>
-      </c>
-      <c r="D10" t="n">
-        <v>320.6222266047191</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1040,12 +976,6 @@
       <c r="B11" t="n">
         <v>115</v>
       </c>
-      <c r="C11" t="n">
-        <v>-84.78888788070594</v>
-      </c>
-      <c r="D11" t="n">
-        <v>298.6454642988592</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1054,12 +984,6 @@
       <c r="B12" t="n">
         <v>115</v>
       </c>
-      <c r="C12" t="n">
-        <v>-68.41849088689368</v>
-      </c>
-      <c r="D12" t="n">
-        <v>303.0990505514989</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1068,12 +992,6 @@
       <c r="B13" t="n">
         <v>115</v>
       </c>
-      <c r="C13" t="n">
-        <v>-83.45929302474377</v>
-      </c>
-      <c r="D13" t="n">
-        <v>298.6966281807966</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1082,12 +1000,6 @@
       <c r="B14" t="n">
         <v>115</v>
       </c>
-      <c r="C14" t="n">
-        <v>-81.55673095482375</v>
-      </c>
-      <c r="D14" t="n">
-        <v>306.5431865894091</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1096,12 +1008,6 @@
       <c r="B15" t="n">
         <v>115</v>
       </c>
-      <c r="C15" t="n">
-        <v>-79.21686808925536</v>
-      </c>
-      <c r="D15" t="n">
-        <v>311.1666166560167</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1110,12 +1016,6 @@
       <c r="B16" t="n">
         <v>115</v>
       </c>
-      <c r="C16" t="n">
-        <v>-68.19878247734879</v>
-      </c>
-      <c r="D16" t="n">
-        <v>291.2160686242877</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1124,12 +1024,6 @@
       <c r="B17" t="n">
         <v>115</v>
       </c>
-      <c r="C17" t="n">
-        <v>-65.5246360274392</v>
-      </c>
-      <c r="D17" t="n">
-        <v>299.6131723095555</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1138,12 +1032,6 @@
       <c r="B18" t="n">
         <v>115</v>
       </c>
-      <c r="C18" t="n">
-        <v>-75.43308576145121</v>
-      </c>
-      <c r="D18" t="n">
-        <v>301.1376967272943</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1152,12 +1040,6 @@
       <c r="B19" t="n">
         <v>115</v>
       </c>
-      <c r="C19" t="n">
-        <v>-83.21336732915037</v>
-      </c>
-      <c r="D19" t="n">
-        <v>307.6670314319189</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1166,12 +1048,6 @@
       <c r="B20" t="n">
         <v>115</v>
       </c>
-      <c r="C20" t="n">
-        <v>-81.00940802459674</v>
-      </c>
-      <c r="D20" t="n">
-        <v>300.0631945832149</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1180,12 +1056,6 @@
       <c r="B21" t="n">
         <v>115</v>
       </c>
-      <c r="C21" t="n">
-        <v>-80.61650331943859</v>
-      </c>
-      <c r="D21" t="n">
-        <v>305.5700608050794</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1194,12 +1064,6 @@
       <c r="B22" t="n">
         <v>115</v>
       </c>
-      <c r="C22" t="n">
-        <v>-81.19100760485111</v>
-      </c>
-      <c r="D22" t="n">
-        <v>298.2585154090377</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1208,12 +1072,6 @@
       <c r="B23" t="n">
         <v>115</v>
       </c>
-      <c r="C23" t="n">
-        <v>-83.25391638969889</v>
-      </c>
-      <c r="D23" t="n">
-        <v>303.933106768955</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1222,12 +1080,6 @@
       <c r="B24" t="n">
         <v>115</v>
       </c>
-      <c r="C24" t="n">
-        <v>-73.77337692047493</v>
-      </c>
-      <c r="D24" t="n">
-        <v>311.334273384322</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1236,12 +1088,6 @@
       <c r="B25" t="n">
         <v>115</v>
       </c>
-      <c r="C25" t="n">
-        <v>-75.81867133760379</v>
-      </c>
-      <c r="D25" t="n">
-        <v>293.2183132119405</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1250,12 +1096,6 @@
       <c r="B26" t="n">
         <v>115</v>
       </c>
-      <c r="C26" t="n">
-        <v>-72.08598405832669</v>
-      </c>
-      <c r="D26" t="n">
-        <v>313.058113119758</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1264,12 +1104,6 @@
       <c r="B27" t="n">
         <v>114</v>
       </c>
-      <c r="C27" t="n">
-        <v>-70.84714148747751</v>
-      </c>
-      <c r="D27" t="n">
-        <v>307.5820849476381</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1278,12 +1112,6 @@
       <c r="B28" t="n">
         <v>114</v>
       </c>
-      <c r="C28" t="n">
-        <v>-79.30419457646708</v>
-      </c>
-      <c r="D28" t="n">
-        <v>307.8862942567603</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1292,12 +1120,6 @@
       <c r="B29" t="n">
         <v>114</v>
       </c>
-      <c r="C29" t="n">
-        <v>-84.78517314654721</v>
-      </c>
-      <c r="D29" t="n">
-        <v>286.3550354380097</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1306,12 +1128,6 @@
       <c r="B30" t="n">
         <v>114</v>
       </c>
-      <c r="C30" t="n">
-        <v>-66.775270581092</v>
-      </c>
-      <c r="D30" t="n">
-        <v>297.9178315205265</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1320,12 +1136,6 @@
       <c r="B31" t="n">
         <v>114</v>
       </c>
-      <c r="C31" t="n">
-        <v>-84.04333631330135</v>
-      </c>
-      <c r="D31" t="n">
-        <v>310.4636201903839</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1334,12 +1144,6 @@
       <c r="B32" t="n">
         <v>114</v>
       </c>
-      <c r="C32" t="n">
-        <v>-72.24668520334188</v>
-      </c>
-      <c r="D32" t="n">
-        <v>305.2640425037719</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1348,12 +1152,6 @@
       <c r="B33" t="n">
         <v>114</v>
       </c>
-      <c r="C33" t="n">
-        <v>-69.56962537686417</v>
-      </c>
-      <c r="D33" t="n">
-        <v>312.236605916861</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1362,12 +1160,6 @@
       <c r="B34" t="n">
         <v>114</v>
       </c>
-      <c r="C34" t="n">
-        <v>-72.96009327789751</v>
-      </c>
-      <c r="D34" t="n">
-        <v>295.793578031733</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1376,12 +1168,6 @@
       <c r="B35" t="n">
         <v>114</v>
       </c>
-      <c r="C35" t="n">
-        <v>-73.99891172707852</v>
-      </c>
-      <c r="D35" t="n">
-        <v>302.3334486171569</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1390,12 +1176,6 @@
       <c r="B36" t="n">
         <v>114</v>
       </c>
-      <c r="C36" t="n">
-        <v>-80.59871732591265</v>
-      </c>
-      <c r="D36" t="n">
-        <v>293.166393057529</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1404,12 +1184,6 @@
       <c r="B37" t="n">
         <v>114</v>
       </c>
-      <c r="C37" t="n">
-        <v>-85.53690979605777</v>
-      </c>
-      <c r="D37" t="n">
-        <v>296.9826938476161</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1418,12 +1192,6 @@
       <c r="B38" t="n">
         <v>114</v>
       </c>
-      <c r="C38" t="n">
-        <v>-70.25927156724522</v>
-      </c>
-      <c r="D38" t="n">
-        <v>322.2142017939813</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1432,12 +1200,6 @@
       <c r="B39" t="n">
         <v>114</v>
       </c>
-      <c r="C39" t="n">
-        <v>-79.75154642207076</v>
-      </c>
-      <c r="D39" t="n">
-        <v>295.0909297793536</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1446,12 +1208,6 @@
       <c r="B40" t="n">
         <v>114</v>
       </c>
-      <c r="C40" t="n">
-        <v>-88.66782270039646</v>
-      </c>
-      <c r="D40" t="n">
-        <v>293.7036122723248</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1460,12 +1216,6 @@
       <c r="B41" t="n">
         <v>114</v>
       </c>
-      <c r="C41" t="n">
-        <v>-74.90419037072003</v>
-      </c>
-      <c r="D41" t="n">
-        <v>294.4539642327704</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1474,12 +1224,6 @@
       <c r="B42" t="n">
         <v>114</v>
       </c>
-      <c r="C42" t="n">
-        <v>-65.97602952176973</v>
-      </c>
-      <c r="D42" t="n">
-        <v>300.4939584472251</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1488,12 +1232,6 @@
       <c r="B43" t="n">
         <v>114</v>
       </c>
-      <c r="C43" t="n">
-        <v>-78.70686869493315</v>
-      </c>
-      <c r="D43" t="n">
-        <v>286.0112812933309</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1501,12 +1239,6 @@
       </c>
       <c r="B44" t="n">
         <v>114</v>
-      </c>
-      <c r="C44" t="n">
-        <v>-87.42146933775921</v>
-      </c>
-      <c r="D44" t="n">
-        <v>313.8301429405902</v>
       </c>
     </row>
   </sheetData>
